--- a/datasets/finance/finance_overall.xlsx
+++ b/datasets/finance/finance_overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC0AE9-385E-4CF8-B995-BB0F298B836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB644F0-9EBC-4C03-B15D-BC9656BCB7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
